--- a/專用資料_代碼.xlsx
+++ b/專用資料_代碼.xlsx
@@ -9,7 +9,9 @@
   <sheets>
     <sheet name="身分別_代碼" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="族別_代碼" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="部族別_代碼" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="部落+族別_代碼" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="族語_代碼" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="族語+方言_代碼" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19290,4 +19292,1193 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>族語</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>族語_代碼</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>阿美族語</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>泰雅族語</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>排灣族語</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>布農族語</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>卑南族語</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>魯凱族語</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>鄒族語</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>賽夏族語</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>雅美族語</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>邵族語</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>噶瑪蘭族語</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>太魯閣族語</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>撒奇萊雅族語</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>賽德克族語</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>拉阿魯哇族語</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>卡那卡那富族語</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>族語</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>方言
+原住民族語言能力認證測驗</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>方言別_代碼</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>族語+方言_代碼</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>阿美族語</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>南勢阿美語</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0101</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>阿美族語</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>秀姑巒阿美語</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0102</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>阿美族語</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>海岸阿美語</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0103</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>阿美族語</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>馬蘭阿美語</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0104</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>阿美族語</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>恆春阿美語</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0105</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>泰雅族語</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>賽考利克泰雅語</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0201</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>泰雅族語</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>四季泰雅語</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0202</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>泰雅族語</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>澤敖利泰雅語</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0203</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>泰雅族語</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>宜蘭澤敖利泰雅語</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0204</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>泰雅族語</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>汶水泰雅語</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0205</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>泰雅族語</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>萬大泰雅語</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0206</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>排灣族語</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>東排灣語</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0301</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>排灣族語</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>北排灣語</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0302</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>排灣族語</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>中排灣語</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0303</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>排灣族語</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>南排灣語</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0304</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>布農族語</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>卓群布農語</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0401</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>布農族語</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>卡群布農語</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0402</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>布農族語</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>丹群布農語</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0403</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>布農族語</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>巒群布農語</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0404</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>布農族語</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>郡群布農語</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0405</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>卑南族語</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>知本卑南語</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0501</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>卑南族語</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>南王卑南語</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0502</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>卑南族語</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>西群卑南語</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0503</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>卑南族語</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>建和卑南語</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0504</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>魯凱族語</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>霧臺魯凱語</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0601</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>魯凱族語</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>東魯凱語</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0602</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>魯凱族語</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>多納魯凱語</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0603</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>魯凱族語</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>萬山魯凱語</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0604</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>魯凱族語</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>茂林魯凱語</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0605</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>魯凱族語</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>大武魯凱語</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0606</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>鄒族語</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>鄒語</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0701</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>賽夏族語</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>賽夏語</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0801</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>雅美族語</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>雅美語</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0901</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>邵族語</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>邵語</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1001</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>噶瑪蘭族語</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>噶瑪蘭語</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1101</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>太魯閣族語</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>太魯閣語</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1201</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>撒奇萊雅族語</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>撒奇萊雅語</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>賽德克族語</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>都達語</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1401</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>賽德克族語</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>德固達雅語</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1402</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>賽德克族語</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>德路固語</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1403</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>拉阿魯哇族語</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>拉阿魯哇語</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1501</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>卡那卡那富族語</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>卡那卡那富語</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1601</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>